--- a/Diagramme/RiskMap.xlsx
+++ b/Diagramme/RiskMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverwerlen/Documents/6th/BAA/Docu/Diagramme/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1619985D-CC34-B84C-AFAD-E3B14795A9FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AAAD16-47FC-B44F-B447-3778342F3782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Event name</t>
   </si>
@@ -106,19 +106,22 @@
     <t>Entwicklerausfall</t>
   </si>
   <si>
-    <t>Unklare Spezifikationen</t>
-  </si>
-  <si>
-    <t>Vernachlässigung des Designprozesses</t>
-  </si>
-  <si>
     <t>Zeitverlust durch unnötige Features</t>
   </si>
   <si>
-    <t>Fehlende technische Kenntnisse</t>
+    <t>Risikomatrix</t>
   </si>
   <si>
-    <t>Risikomatrix</t>
+    <t>Unklare Schnittstellenspezifikation</t>
+  </si>
+  <si>
+    <t>Vernachlässigung Designprozesses</t>
+  </si>
+  <si>
+    <t>Fehlende technische Kompetenz</t>
+  </si>
+  <si>
+    <t>Veränderung im Projektteam</t>
   </si>
 </sst>
 </file>
@@ -167,11 +170,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3057B391-54F1-9341-AED4-7CD22D533654}" type="CELLRANGE">
+                    <a:fld id="{0C6B0E0B-6021-224D-8B60-7FE2A7CB0DB0}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -293,7 +297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EB48F2F8-651B-F441-B898-994E5C449716}" type="CELLRANGE">
+                    <a:fld id="{8D8646AD-810B-B449-950D-B75D97CA4F63}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -323,12 +327,92 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8729204249348931E-3"/>
+                  <c:y val="-2.9936681301933991E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BEBEA73-21E6-1D49-996C-C69CE9379FC6}" type="CELLRANGE">
+                    <a:fld id="{2B0A06E6-CB39-9646-B828-A414170EF5F2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-C759-2E47-82B9-FDFC0E7E8A93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30B144F4-F71E-7F40-890E-D832E020699E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.26065343756263781"/>
+                      <c:h val="8.2845712834282811E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C759-2E47-82B9-FDFC0E7E8A93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{802A1314-7B65-7D46-99C9-384823213448}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -352,18 +436,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-C759-2E47-82B9-FDFC0E7E8A93}"/>
+                  <c16:uniqueId val="{00000004-C759-2E47-82B9-FDFC0E7E8A93}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="3"/>
+              <c:idx val="5"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CAE06F3-71C7-5E45-B7F2-09D121820A8C}" type="CELLRANGE">
+                    <a:fld id="{E823D0F8-4017-6446-9CA9-3714D1AEA607}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -387,18 +471,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C759-2E47-82B9-FDFC0E7E8A93}"/>
+                  <c16:uniqueId val="{00000019-5D70-B742-BDF8-31DB3188AD85}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="4"/>
+              <c:idx val="6"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31335EF2-57B3-2F4F-A037-093BD1137823}" type="CELLRANGE">
+                    <a:fld id="{AB189484-1087-134C-9B13-8FF24D86E813}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -422,18 +506,18 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-C759-2E47-82B9-FDFC0E7E8A93}"/>
+                  <c16:uniqueId val="{0000001A-5D70-B742-BDF8-31DB3188AD85}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="7"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CF76B0B-89B9-5147-A15C-D1F0FACE25FA}" type="CELLRANGE">
+                    <a:fld id="{02DCFCFE-DCFF-7748-9DCC-49F509539548}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -457,22 +541,17 @@
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-5D70-B742-BDF8-31DB3188AD85}"/>
+                  <c16:uniqueId val="{00000001-6CCC-674B-942C-00D3550FA574}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="8"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{010CFDFC-8392-BD4A-9CB5-7AB71E07DB04}" type="CELLRANGE">
-                      <a:rPr lang="en-GB"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
                     <a:endParaRPr lang="en-GB"/>
                   </a:p>
                 </c:rich>
@@ -487,12 +566,11 @@
               <c:separator>, </c:separator>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001A-5D70-B742-BDF8-31DB3188AD85}"/>
+                  <c16:uniqueId val="{00000002-6CCC-674B-942C-00D3550FA574}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -553,15 +631,15 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Percent!$C$2:$C$8</c:f>
+              <c:f>Percent!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2</c:v>
@@ -573,25 +651,28 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Percent!$D$2:$D$8</c:f>
+              <c:f>Percent!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.7</c:v>
@@ -603,10 +684,13 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,9 +699,9 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Percent!$A$2:$A$8</c15:f>
+                <c15:f>Percent!$A$2:$A$9</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="7"/>
+                  <c:ptCount val="8"/>
                   <c:pt idx="0">
                     <c:v>Falsche Zeitschätzungen</c:v>
                   </c:pt>
@@ -628,16 +712,19 @@
                     <c:v>Entwicklerausfall</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Unklare Spezifikationen</c:v>
+                    <c:v>Unklare Schnittstellenspezifikation</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Vernachlässigung des Designprozesses</c:v>
+                    <c:v>Vernachlässigung Designprozesses</c:v>
                   </c:pt>
                   <c:pt idx="5">
                     <c:v>Zeitverlust durch unnötige Features</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Fehlende technische Kenntnisse</c:v>
+                    <c:v>Fehlende technische Kompetenz</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Veränderung im Projektteam</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -1073,7 +1160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9C1454E-11E6-524B-9CEA-E001373EBCA9}" type="CELLRANGE">
+                    <a:fld id="{AA284EF5-9A18-2D4C-A1CE-F6AFFE222D14}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1107,7 +1194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EDBAAF0-F315-F54E-A13F-3CAADB1FB885}" type="CELLRANGE">
+                    <a:fld id="{E71339CF-6435-E24D-A825-D1D44410E75C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1141,7 +1228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1415A84C-02EA-0D4B-8E85-614CA47DF20A}" type="CELLRANGE">
+                    <a:fld id="{02A816EA-BF92-1C46-9444-A006D5D08018}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1175,7 +1262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4CDEFB1-04E4-994B-81FF-FDCB8A687683}" type="CELLRANGE">
+                    <a:fld id="{0752697D-60E0-1145-BDE9-B7476AE01B8B}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1209,7 +1296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{76707865-6B08-CA49-8CAE-AE4542AA5608}" type="CELLRANGE">
+                    <a:fld id="{EC3D2A71-2D0B-A549-90AD-FBB06F431F8C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1243,7 +1330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC7569A3-0CE8-4B47-98EA-B7E1E6F7D8B0}" type="CELLRANGE">
+                    <a:fld id="{0CA57A5E-B4AB-3E42-A7A1-01218C0BFC64}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1277,7 +1364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9F269C5-E663-C945-9087-50F945DC053F}" type="CELLRANGE">
+                    <a:fld id="{76BC1CA7-95C6-144E-867C-7546A5A4C1A7}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1311,7 +1398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{547F9409-5C2B-DF43-B2C0-F036FA40947A}" type="CELLRANGE">
+                    <a:fld id="{6DD28C15-4A73-B64C-9614-44E69186C7D1}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1345,7 +1432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5FA8AF54-8276-5947-907D-B3810B894181}" type="CELLRANGE">
+                    <a:fld id="{2E7BE712-97FD-D145-BAFD-997F9208E28C}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1420,34 +1507,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.0530120633398763</c:v>
+                  <c:v>6.7927369428780828</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5789332853810372</c:v>
+                  <c:v>3.306491281832403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0535813301490737</c:v>
+                  <c:v>6.9884912074039063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3181828217563538</c:v>
+                  <c:v>9.8282928497143622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0166409808700161</c:v>
+                  <c:v>3.45057716615355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4538281688064876</c:v>
+                  <c:v>1.8333318821577527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.7802428165264264</c:v>
+                  <c:v>4.5278312302596166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0244366180403741</c:v>
+                  <c:v>0.3856977350969748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9689495181979275</c:v>
+                  <c:v>4.1089995973393325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7716947777310044</c:v>
+                  <c:v>3.2872809342230869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,34 +1546,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.6136882293253381</c:v>
+                  <c:v>7.7454751548738763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35577198631533413</c:v>
+                  <c:v>0.8110933378373042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.271878110071003</c:v>
+                  <c:v>8.8993760892535647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6192995217416657</c:v>
+                  <c:v>3.393586292943187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1708512581506199</c:v>
+                  <c:v>0.26548076014930033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2095591147326061</c:v>
+                  <c:v>3.3684414479173199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1455385447861319</c:v>
+                  <c:v>3.4184465520514671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.790992777491681</c:v>
+                  <c:v>3.3118301800420924</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2780424761942122</c:v>
+                  <c:v>6.7000679165256836</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5787346905821185</c:v>
+                  <c:v>8.0171815882689597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +2049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BCBCDCD-3F68-D342-A413-D5AD9F8C53CE}" type="CELLRANGE">
+                    <a:fld id="{695AE35D-C492-F54E-B5C7-4C8C8E168404}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1996,7 +2083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0A8629C-DF12-D844-9EC2-72E459864FF8}" type="CELLRANGE">
+                    <a:fld id="{E21F0CD7-F17F-6744-A439-A9BB7DE337CF}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2030,7 +2117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75E0C2DC-AEC3-0840-A084-892C13E7E9A6}" type="CELLRANGE">
+                    <a:fld id="{73C90FE7-0B98-874C-BABC-2EE2032DA13A}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2064,7 +2151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02C0FDCC-5EB5-E649-85C3-3628E74EB063}" type="CELLRANGE">
+                    <a:fld id="{66868F90-BD36-A847-B9E2-CB8CABE1C54D}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2098,7 +2185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9944D7C8-7768-6C43-828B-1BDB05F53803}" type="CELLRANGE">
+                    <a:fld id="{67BD4790-B16A-9E44-B0BD-FF71B97D2D56}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2132,7 +2219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C9B53D4-F89D-D04E-9F3B-EC0E98C11256}" type="CELLRANGE">
+                    <a:fld id="{523FA9CC-4189-B641-83D6-F894CED98966}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2166,7 +2253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{741C5F02-3DE3-3143-A7CA-26DE6BA1CB92}" type="CELLRANGE">
+                    <a:fld id="{7444CD52-602C-6048-A21A-9D9C07C4EED3}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2200,7 +2287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CE06986-AE30-EE48-8D56-09310B02150F}" type="CELLRANGE">
+                    <a:fld id="{5AC0D88C-6350-2140-8EBE-817D79B6E796}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2234,7 +2321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F998F0F-E145-784D-9DE6-BF679CF0F585}" type="CELLRANGE">
+                    <a:fld id="{012B5DEC-F7F7-F141-AB05-C80338635EDB}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2309,34 +2396,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.628681836258701</c:v>
+                  <c:v>3.7333528302275871</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6931506053587788</c:v>
+                  <c:v>0.17896163843260093</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.677946522652471</c:v>
+                  <c:v>2.8175931238064686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48233886412614946</c:v>
+                  <c:v>4.1434658929102088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.234650307136147</c:v>
+                  <c:v>1.8485002204775651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35597302156082589</c:v>
+                  <c:v>1.7057775663689956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1189652273721284</c:v>
+                  <c:v>3.8601294977202203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.68382190585016545</c:v>
+                  <c:v>2.8983357716211797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.481725193292263</c:v>
+                  <c:v>2.2664575880038562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3853972662207834</c:v>
+                  <c:v>0.96587888859147486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,34 +2435,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.1670829219474683</c:v>
+                  <c:v>1.581509811475847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7381248840451415</c:v>
+                  <c:v>3.9463623890546025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0040463105434099</c:v>
+                  <c:v>2.673775812313619</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5419322760010887</c:v>
+                  <c:v>4.9993137459460719</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88523784024679752</c:v>
+                  <c:v>1.1796319135478757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9986725620523917</c:v>
+                  <c:v>4.8033601292241075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9022167620766917</c:v>
+                  <c:v>3.3527695456461615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7073466882477941</c:v>
+                  <c:v>0.67993861203289319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4403502842204521</c:v>
+                  <c:v>3.861493750586888</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8326430567005985</c:v>
+                  <c:v>4.843846461618516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,7 +4833,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4773,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D2" s="2">
         <v>0.8</v>
@@ -4784,10 +4871,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4803,7 +4890,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2">
         <v>0.1</v>
@@ -4814,7 +4901,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>0.2</v>
@@ -4825,29 +4912,40 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.9</v>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4912,11 +5010,11 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RAND()*10</f>
-        <v>5.0530120633398763</v>
+        <v>6.7927369428780828</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C11" ca="1" si="0">RAND()*10</f>
-        <v>3.6136882293253381</v>
+        <v>7.7454751548738763</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,11 +5023,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B11" ca="1" si="1">RAND()*10</f>
-        <v>4.5789332853810372</v>
+        <v>3.306491281832403</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35577198631533413</v>
+        <v>0.8110933378373042</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4938,11 +5036,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0535813301490737</v>
+        <v>6.9884912074039063</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.271878110071003</v>
+        <v>8.8993760892535647</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4951,11 +5049,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3181828217563538</v>
+        <v>9.8282928497143622</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6192995217416657</v>
+        <v>3.393586292943187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,11 +5062,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0166409808700161</v>
+        <v>3.45057716615355</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1708512581506199</v>
+        <v>0.26548076014930033</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,11 +5075,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4538281688064876</v>
+        <v>1.8333318821577527</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2095591147326061</v>
+        <v>3.3684414479173199</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4990,11 +5088,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7802428165264264</v>
+        <v>4.5278312302596166</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1455385447861319</v>
+        <v>3.4184465520514671</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5003,11 +5101,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0244366180403741</v>
+        <v>0.3856977350969748</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.790992777491681</v>
+        <v>3.3118301800420924</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5016,11 +5114,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9689495181979275</v>
+        <v>4.1089995973393325</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2780424761942122</v>
+        <v>6.7000679165256836</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5029,11 +5127,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7716947777310044</v>
+        <v>3.2872809342230869</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5787346905821185</v>
+        <v>8.0171815882689597</v>
       </c>
     </row>
   </sheetData>
@@ -5110,11 +5208,11 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RAND()*5</f>
-        <v>0.628681836258701</v>
+        <v>3.7333528302275871</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C11" ca="1" si="0">RAND()*5</f>
-        <v>3.1670829219474683</v>
+        <v>1.581509811475847</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,11 +5221,11 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B11" ca="1" si="1">RAND()*5</f>
-        <v>2.6931506053587788</v>
+        <v>0.17896163843260093</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7381248840451415</v>
+        <v>3.9463623890546025</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,11 +5234,11 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.677946522652471</v>
+        <v>2.8175931238064686</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0040463105434099</v>
+        <v>2.673775812313619</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5149,11 +5247,11 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48233886412614946</v>
+        <v>4.1434658929102088</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5419322760010887</v>
+        <v>4.9993137459460719</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5162,11 +5260,11 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.234650307136147</v>
+        <v>1.8485002204775651</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88523784024679752</v>
+        <v>1.1796319135478757</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5175,11 +5273,11 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35597302156082589</v>
+        <v>1.7057775663689956</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9986725620523917</v>
+        <v>4.8033601292241075</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5188,11 +5286,11 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1189652273721284</v>
+        <v>3.8601294977202203</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9022167620766917</v>
+        <v>3.3527695456461615</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5201,11 +5299,11 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68382190585016545</v>
+        <v>2.8983357716211797</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7073466882477941</v>
+        <v>0.67993861203289319</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5214,11 +5312,11 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1.481725193292263</v>
+        <v>2.2664575880038562</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4403502842204521</v>
+        <v>3.861493750586888</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5227,11 +5325,11 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3853972662207834</v>
+        <v>0.96587888859147486</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8326430567005985</v>
+        <v>4.843846461618516</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
